--- a/data/depends/DESSTEPS_338039_HPFS QUOTE Products.xlsx
+++ b/data/depends/DESSTEPS_338039_HPFS QUOTE Products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childerr\Documents\Unified Functional Testing\backup\data\depends\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\childerr\Documents\git_projects\NGQ\data\depends\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
